--- a/Deposits_Returns.xlsx
+++ b/Deposits_Returns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/fce19_ic_ac_uk/Documents/Programming/Finance_Investment/OwnPortfolioAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/fce19_ic_ac_uk/Documents/Programming/GithubRepos/PortfolioAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{D4D3E242-7DB5-4B93-999F-575FBDDC8FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14464E35-BD7D-C347-8DF1-0DF8E3E9CDA3}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{D4D3E242-7DB5-4B93-999F-575FBDDC8FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25304626-87DE-415D-8AAA-4469C92E8042}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="1452" windowWidth="13704" windowHeight="10476" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etoro" sheetId="2" r:id="rId1"/>
@@ -1913,11 +1913,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1935,17 +1934,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -2027,7 +2025,7 @@
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
     <keyFlags>
       <key name="_Self">
@@ -2142,20 +2140,17 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>1.3912</v>
-    <v>1.1348</v>
-    <v>-5.0000000000000001E-4</v>
-    <v>-4.3810000000000002E-4</v>
+    <v>1.3188</v>
+    <v>1.0382</v>
+    <v>-5.0000000000000001E-3</v>
+    <v>-4.0379999999999999E-3</v>
     <v>USD</v>
     <v>GBP</v>
-    <v>1.1442000000000001</v>
     <v>Currency Pair</v>
-    <v>44823.668587962966</v>
-    <v>1.1355999999999999</v>
+    <v>45016.874988425923</v>
     <v>UK Pound Sterling/US Dollar FX Spot Rate</v>
-    <v>1.1413</v>
-    <v>1.1412</v>
-    <v>1.1407</v>
+    <v>1.2383</v>
+    <v>1.2333000000000001</v>
     <v>GBPUSD</v>
     <v>GBP/USD</v>
   </rv>
@@ -2185,12 +2180,9 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2205,7 +2197,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="27">
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2223,9 +2215,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2251,15 +2240,12 @@
     </spb>
     <spb s="3">
       <v>1</v>
-      <v>1</v>
       <v>2</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
+      <v>2</v>
       <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
       <v>4</v>
       <v>5</v>
     </spb>
@@ -2286,10 +2272,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -2322,20 +2305,20 @@
     </x:dxf>
   </dxfs>
   <richProperties>
+    <rPr n="IsTitleField" t="b"/>
     <rPr n="NumberFormat" t="s"/>
-    <rPr n="IsTitleField" t="b"/>
   </richProperties>
   <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
     <rSty dxfid="3">
-      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
-    </rSty>
-    <rSty>
-      <rpv i="1">1</rpv>
+      <rpv i="1">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
     </rSty>
     <rSty dxfid="2"/>
     <rSty dxfid="1"/>
     <rSty dxfid="0">
-      <rpv i="0">0.00</rpv>
+      <rpv i="1">0.00</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -2628,921 +2611,1129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F170CA-5FAA-4670-991A-BE540802BFBA}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.8359375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>43991</v>
       </c>
       <c r="B2" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>43991</v>
       </c>
       <c r="B3" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>43992</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>44011</v>
       </c>
       <c r="B5" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>44032</v>
       </c>
       <c r="B6" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>44047</v>
       </c>
       <c r="B7" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>44053</v>
       </c>
       <c r="B8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>44077</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>44077</v>
       </c>
       <c r="B10" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>44082</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>44120</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>44133</v>
       </c>
       <c r="B13" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>44133</v>
       </c>
       <c r="B14" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>44144</v>
       </c>
       <c r="B15" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>44151</v>
       </c>
       <c r="B16" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>44165</v>
       </c>
       <c r="B17" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>44165</v>
       </c>
       <c r="B18" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>44173</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>44175</v>
       </c>
       <c r="B20" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>44200</v>
       </c>
       <c r="B21" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>44207</v>
       </c>
       <c r="B22" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>44211</v>
       </c>
       <c r="B23" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>44221</v>
       </c>
       <c r="B24" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>44228</v>
       </c>
       <c r="B25" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>44250</v>
       </c>
       <c r="B26" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>44256</v>
       </c>
       <c r="B27" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
         <v>44264</v>
       </c>
       <c r="B28" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>44264</v>
       </c>
       <c r="B29" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
         <v>44277</v>
       </c>
       <c r="B30" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
         <v>44285</v>
       </c>
       <c r="B31" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
         <v>44292</v>
       </c>
       <c r="B32" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
         <v>44299</v>
       </c>
       <c r="B33" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
         <v>44305</v>
       </c>
       <c r="B34" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
         <v>44306</v>
       </c>
       <c r="B35" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
         <v>44309</v>
       </c>
       <c r="B36" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>44319</v>
       </c>
       <c r="B37" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
         <v>44326</v>
       </c>
       <c r="B38" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
         <v>44333</v>
       </c>
       <c r="B39" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
         <v>44341</v>
       </c>
       <c r="B40" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
         <v>44349</v>
       </c>
       <c r="B41" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
         <v>44355</v>
       </c>
       <c r="B42" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
         <v>44362</v>
       </c>
       <c r="B43" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
         <v>44368</v>
       </c>
       <c r="B44" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
         <v>44375</v>
       </c>
       <c r="B45" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
         <v>44384</v>
       </c>
       <c r="B46" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
         <v>44389</v>
       </c>
       <c r="B47" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
         <v>44396</v>
       </c>
       <c r="B48" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
         <v>44403</v>
       </c>
       <c r="B49" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
         <v>44403</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
         <v>44410</v>
       </c>
       <c r="B51" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
         <v>44411</v>
       </c>
       <c r="B52" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
         <v>44418</v>
       </c>
       <c r="B53" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
         <v>44424</v>
       </c>
       <c r="B54" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
         <v>44428</v>
       </c>
       <c r="B55" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
         <v>44435</v>
       </c>
       <c r="B56" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
         <v>44448</v>
       </c>
       <c r="B57" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
         <v>44452</v>
       </c>
       <c r="B58" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
         <v>44462</v>
       </c>
       <c r="B59" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
         <v>44466</v>
       </c>
       <c r="B60" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
         <v>44473</v>
       </c>
       <c r="B61" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
         <v>44480</v>
       </c>
       <c r="B62" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="11">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
         <v>44487</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="11">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
         <v>44494</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
         <v>44501</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
         <v>44501</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
         <v>44508</v>
       </c>
       <c r="B67" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
         <v>44515</v>
       </c>
       <c r="B68" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
         <v>44518</v>
       </c>
       <c r="B69" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
         <v>44522</v>
       </c>
       <c r="B70" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
         <v>44529</v>
       </c>
       <c r="B71" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
         <v>44532</v>
       </c>
       <c r="B72" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
         <v>44536</v>
       </c>
       <c r="B73" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
         <v>44543</v>
       </c>
       <c r="B74" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
         <v>44550</v>
       </c>
       <c r="B75" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
         <v>44557</v>
       </c>
       <c r="B76" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
         <v>44564</v>
       </c>
       <c r="B77" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
         <v>44571</v>
       </c>
       <c r="B78" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
         <v>44579</v>
       </c>
       <c r="B79" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
         <v>44585</v>
       </c>
       <c r="B80" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
         <v>44592</v>
       </c>
       <c r="B81" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
         <v>44599</v>
       </c>
       <c r="B82" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
         <v>44606</v>
       </c>
       <c r="B83" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
         <v>44614</v>
       </c>
       <c r="B84" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
         <v>44620</v>
       </c>
       <c r="B85" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
         <v>44627</v>
       </c>
       <c r="B86" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
         <v>44634</v>
       </c>
       <c r="B87" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
         <v>44641</v>
       </c>
       <c r="B88" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
         <v>44648</v>
       </c>
       <c r="B89" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
         <v>44655</v>
       </c>
       <c r="B90" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
         <v>44662</v>
       </c>
       <c r="B91" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
         <v>44669</v>
       </c>
       <c r="B92" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
         <v>44676</v>
       </c>
       <c r="B93" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
         <v>44683</v>
       </c>
       <c r="B94" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
         <v>44686</v>
       </c>
       <c r="B95" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
         <v>44690</v>
       </c>
       <c r="B96" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
         <v>44697</v>
       </c>
       <c r="B97" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
         <v>44704</v>
       </c>
       <c r="B98" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
         <v>44712</v>
       </c>
       <c r="B99" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="7">
         <v>44718</v>
       </c>
       <c r="B100" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
         <v>44725</v>
       </c>
       <c r="B101" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
         <v>44733</v>
       </c>
       <c r="B102" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="7">
         <v>44739</v>
       </c>
       <c r="B103" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="7">
         <v>44747</v>
       </c>
       <c r="B104" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
         <v>44753</v>
       </c>
       <c r="B105" s="1">
         <v>89.75</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
         <v>44760</v>
       </c>
       <c r="B106" s="1">
         <v>89.52</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
         <v>44767</v>
       </c>
       <c r="B107" s="1">
         <v>84.33</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="7">
         <v>44774</v>
       </c>
       <c r="B108" s="1">
         <v>91.41</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="7">
         <v>44781</v>
       </c>
       <c r="B109" s="1">
         <v>90.58</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
         <v>44788</v>
       </c>
       <c r="B110" s="1">
         <v>90.53</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="8">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
         <v>44795</v>
       </c>
       <c r="B111" s="1">
         <v>88.05</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="7">
         <v>44816</v>
       </c>
       <c r="B112" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
         <v>44823</v>
       </c>
       <c r="B113" s="1">
         <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="7">
+        <v>44837</v>
+      </c>
+      <c r="B114" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>44844</v>
+      </c>
+      <c r="B115" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
+        <v>44851</v>
+      </c>
+      <c r="B116" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>44858</v>
+      </c>
+      <c r="B117" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
+        <v>44865</v>
+      </c>
+      <c r="B118" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
+        <v>44872</v>
+      </c>
+      <c r="B119" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>44879</v>
+      </c>
+      <c r="B120" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>44886</v>
+      </c>
+      <c r="B121" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
+        <v>44893</v>
+      </c>
+      <c r="B122" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="7">
+        <v>44900</v>
+      </c>
+      <c r="B123" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="7">
+        <v>44907</v>
+      </c>
+      <c r="B124" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="7">
+        <v>44915</v>
+      </c>
+      <c r="B125" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="7">
+        <v>44921</v>
+      </c>
+      <c r="B126" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="7">
+        <v>44928</v>
+      </c>
+      <c r="B127" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B128" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="7">
+        <v>44943</v>
+      </c>
+      <c r="B129" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="7">
+        <v>44949</v>
+      </c>
+      <c r="B130" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="7">
+        <v>44956</v>
+      </c>
+      <c r="B131" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="7">
+        <v>44963</v>
+      </c>
+      <c r="B132" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="7">
+        <v>44970</v>
+      </c>
+      <c r="B133" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B134" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="7">
+        <v>44984</v>
+      </c>
+      <c r="B135" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="7">
+        <v>44991</v>
+      </c>
+      <c r="B136" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="7">
+        <v>44998</v>
+      </c>
+      <c r="B137" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="7">
+        <v>45005</v>
+      </c>
+      <c r="B138" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="7">
+        <v>45012</v>
+      </c>
+      <c r="B139" s="1">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3558,81 +3749,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B814838-C0D2-4332-A2D5-D173C6EC8D5D}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.4921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>44657</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>500</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>44693</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>44727</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>44757</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>44788</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>44806</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="18">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>44819</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="18">
         <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>44860</v>
+      </c>
+      <c r="B9" s="18">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3644,25 +3844,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673B7E8B-C9B2-4562-84CD-10E9775FF423}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>44258</v>
       </c>
       <c r="B2" s="1">
@@ -3678,60 +3878,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A43730-6C46-42D8-BCA9-E0BA56E01E60}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.29296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.71875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="7"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>549</v>
       </c>
       <c r="C1" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>552</v>
       </c>
       <c r="E1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(Etoro!B2:B159)</f>
-        <v>10307.17</v>
+        <v>11807.17</v>
       </c>
       <c r="C2" s="1">
-        <v>9600</v>
-      </c>
-      <c r="D2" s="7">
+        <v>11995</v>
+      </c>
+      <c r="D2" s="6">
         <f>(C2-B2)/B2</f>
-        <v>-6.8609521333207857E-2</v>
-      </c>
-      <c r="E2" s="7">
+        <v>1.590813039873229E-2</v>
+      </c>
+      <c r="E2" s="6">
         <f>(C2-B8-B2)/B2</f>
-        <v>-0.18939922403530746</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+        <v>-8.9536273298343294E-2</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -3740,157 +3940,157 @@
       <c r="C3" s="1">
         <v>435</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D6" si="0">(C3-B3)/B3</f>
         <v>-0.13</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>D3</f>
         <v>-0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>548</v>
       </c>
-      <c r="B4" s="20">
-        <f>SUM(Nutmeg!B2:B7)*Returns!B9</f>
-        <v>1226.2525000000001</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="19">
+        <f>SUM(Nutmeg!B2:B9)*Returns!B9</f>
+        <v>1603.2900000000002</v>
+      </c>
+      <c r="C4" s="19">
         <f>B10*Returns!B9</f>
-        <v>1165.7954</v>
-      </c>
-      <c r="D4" s="7">
+        <v>1594.6569000000002</v>
+      </c>
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-4.9302325581395412E-2</v>
-      </c>
-      <c r="E4" s="7">
+        <v>-5.3846153846153922E-3</v>
+      </c>
+      <c r="E4" s="6">
         <f>D4</f>
-        <v>-4.9302325581395412E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+        <v>-5.3846153846153922E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <f>B2+B4</f>
-        <v>11533.422500000001</v>
-      </c>
-      <c r="C5" s="23">
+        <v>13410.460000000001</v>
+      </c>
+      <c r="C5" s="21">
         <f>C2+C4</f>
-        <v>10765.795399999999</v>
-      </c>
-      <c r="D5" s="24">
+        <v>13589.6569</v>
+      </c>
+      <c r="D5" s="22">
         <f t="shared" si="0"/>
-        <v>-6.6556748441323602E-2</v>
-      </c>
-      <c r="E5" s="7">
+        <v>1.3362472279101463E-2</v>
+      </c>
+      <c r="E5" s="6">
         <f>(C5-B8-B5)/B5</f>
-        <v>-0.17450389075749209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-7.9475506433038162E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>547</v>
       </c>
       <c r="B6" s="1">
         <f>SUM(B2:B4)</f>
-        <v>12033.422500000001</v>
+        <v>13910.460000000001</v>
       </c>
       <c r="C6" s="1">
         <f>SUM(C2:C4)</f>
-        <v>11200.795399999999</v>
-      </c>
-      <c r="D6" s="7">
+        <v>14024.6569</v>
+      </c>
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-6.9192875094346726E-2</v>
-      </c>
-      <c r="E6" s="7">
+        <v>8.2094265753971472E-3</v>
+      </c>
+      <c r="E6" s="6">
         <f>(C6-B8-B6)/B6</f>
-        <v>-0.17265471232311516</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-8.12915676404663E-2</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>1245</v>
       </c>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B9" s="25" cm="1">
+      <c r="B9" s="23" cm="1">
         <f t="array" ref="B9">_FV(A9,"Price")</f>
-        <v>1.1407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.2333000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>555</v>
       </c>
       <c r="B10">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
@@ -3907,17 +4107,17 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.0859375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.046875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.046875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.8359375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3941,2308 +4141,2308 @@
       </c>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>44309</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>44308</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>44307</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>44306</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>44305</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>44302</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>44301</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>44300</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>44299</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>44298</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>44295</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>44294</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>44293</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>44292</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>44291</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>44287</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>44286</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>44285</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>44284</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>44281</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>44280</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>44279</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>44278</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>44277</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>44274</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>44274</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" t="s">
         <v>134</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>44273</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>44272</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>44271</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>44270</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>44267</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>44266</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>44265</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" t="s">
         <v>173</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>44264</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" t="s">
         <v>180</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>44263</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>184</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>44260</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" t="s">
         <v>192</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
         <v>44259</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>194</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" t="s">
         <v>197</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>44258</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" t="s">
         <v>203</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>44257</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>207</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" t="s">
         <v>209</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>44256</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>213</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" t="s">
         <v>173</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>44253</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" t="s">
         <v>218</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" t="s">
         <v>219</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>44252</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" t="s">
         <v>224</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" t="s">
         <v>225</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>44251</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>228</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" t="s">
         <v>229</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" t="s">
         <v>230</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>44250</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>232</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" t="s">
         <v>234</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" t="s">
         <v>235</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>44249</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>237</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s">
         <v>238</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>239</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" t="s">
         <v>240</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" t="s">
         <v>241</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>44246</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>244</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" t="s">
         <v>245</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>44245</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s">
         <v>248</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>249</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" t="s">
         <v>250</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" t="s">
         <v>251</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>44244</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s">
         <v>254</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>255</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" t="s">
         <v>256</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" t="s">
         <v>257</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>44243</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="s">
         <v>260</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>261</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" t="s">
         <v>262</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" t="s">
         <v>263</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>44239</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>265</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" t="s">
         <v>266</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>267</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" t="s">
         <v>268</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" t="s">
         <v>269</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>44238</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>271</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" t="s">
         <v>272</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" t="s">
         <v>273</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" t="s">
         <v>274</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" t="s">
         <v>275</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>44237</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>277</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" t="s">
         <v>278</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" t="s">
         <v>234</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" t="s">
         <v>279</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" t="s">
         <v>280</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>44236</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>282</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" t="s">
         <v>283</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" t="s">
         <v>284</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" t="s">
         <v>285</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" t="s">
         <v>286</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>44235</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>288</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" t="s">
         <v>289</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" t="s">
         <v>290</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" t="s">
         <v>291</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" t="s">
         <v>292</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>44232</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" t="s">
         <v>295</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" t="s">
         <v>296</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" t="s">
         <v>297</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" t="s">
         <v>298</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>44231</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>300</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" t="s">
         <v>301</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>302</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" t="s">
         <v>303</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
         <v>44230</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>306</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="s">
         <v>307</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" t="s">
         <v>308</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" t="s">
         <v>309</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" t="s">
         <v>310</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>44229</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>312</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" t="s">
         <v>314</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" t="s">
         <v>315</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" t="s">
         <v>316</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>44228</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>318</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" t="s">
         <v>319</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" t="s">
         <v>320</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" t="s">
         <v>321</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" t="s">
         <v>322</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <v>44225</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>324</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" t="s">
         <v>325</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" t="s">
         <v>326</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" t="s">
         <v>327</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" t="s">
         <v>328</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
         <v>44224</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>330</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" t="s">
         <v>331</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>332</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" t="s">
         <v>333</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" t="s">
         <v>334</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
         <v>44223</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>336</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" t="s">
         <v>337</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" t="s">
         <v>338</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" t="s">
         <v>339</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" t="s">
         <v>340</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
         <v>44222</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>342</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>176</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" t="s">
         <v>343</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" t="s">
         <v>344</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" t="s">
         <v>345</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
         <v>44221</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>347</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" t="s">
         <v>348</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" t="s">
         <v>349</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" t="s">
         <v>350</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" t="s">
         <v>351</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
         <v>44218</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>353</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" t="s">
         <v>354</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" t="s">
         <v>355</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" t="s">
         <v>356</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" t="s">
         <v>357</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
         <v>44217</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>359</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" t="s">
         <v>360</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" t="s">
         <v>361</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" t="s">
         <v>362</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" t="s">
         <v>363</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
         <v>44216</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>365</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" t="s">
         <v>366</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" t="s">
         <v>367</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" t="s">
         <v>368</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" t="s">
         <v>369</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
         <v>44215</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>371</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" t="s">
         <v>372</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" t="s">
         <v>373</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" t="s">
         <v>374</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" t="s">
         <v>375</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
         <v>44211</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>377</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" t="s">
         <v>378</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" t="s">
         <v>379</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" t="s">
         <v>380</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" t="s">
         <v>381</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
         <v>44210</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>383</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" t="s">
         <v>384</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" t="s">
         <v>385</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" t="s">
         <v>349</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" t="s">
         <v>386</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>44209</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>388</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" t="s">
         <v>389</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" t="s">
         <v>390</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" t="s">
         <v>391</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" t="s">
         <v>392</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
         <v>44208</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>394</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" t="s">
         <v>395</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" t="s">
         <v>330</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" t="s">
         <v>396</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" t="s">
         <v>397</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
         <v>44207</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>390</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" t="s">
         <v>399</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" t="s">
         <v>400</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" t="s">
         <v>388</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" t="s">
         <v>401</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
         <v>44204</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
         <v>383</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" t="s">
         <v>403</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" t="s">
         <v>404</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" t="s">
         <v>405</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" t="s">
         <v>406</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
         <v>44203</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>408</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" t="s">
         <v>409</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" t="s">
         <v>410</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" t="s">
         <v>411</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" t="s">
         <v>412</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <v>44202</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>414</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" t="s">
         <v>415</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" t="s">
         <v>416</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" t="s">
         <v>417</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" t="s">
         <v>418</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
         <v>44201</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>420</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" t="s">
         <v>421</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" t="s">
         <v>422</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" t="s">
         <v>423</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" t="s">
         <v>424</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
         <v>44200</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
         <v>426</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" t="s">
         <v>427</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" t="s">
         <v>428</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" t="s">
         <v>429</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" t="s">
         <v>430</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
         <v>44196</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
         <v>432</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="s">
         <v>433</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" t="s">
         <v>434</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" t="s">
         <v>435</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" t="s">
         <v>436</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
         <v>44195</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s">
         <v>438</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s">
         <v>439</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" t="s">
         <v>440</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" t="s">
         <v>441</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" t="s">
         <v>442</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
         <v>44194</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>444</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" t="s">
         <v>445</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" t="s">
         <v>446</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" t="s">
         <v>447</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" t="s">
         <v>448</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
         <v>44193</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>450</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s">
         <v>451</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" t="s">
         <v>452</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" t="s">
         <v>453</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" t="s">
         <v>454</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
         <v>44189</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>456</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s">
         <v>457</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" t="s">
         <v>458</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" t="s">
         <v>459</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" t="s">
         <v>460</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
         <v>44188</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
         <v>462</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s">
         <v>463</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" t="s">
         <v>464</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" t="s">
         <v>465</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" t="s">
         <v>466</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
         <v>44187</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>468</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" t="s">
         <v>469</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" t="s">
         <v>470</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" t="s">
         <v>471</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" t="s">
         <v>472</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
         <v>44186</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
         <v>474</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" t="s">
         <v>349</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" t="s">
         <v>475</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" t="s">
         <v>476</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" t="s">
         <v>477</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
         <v>44183</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>479</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" t="s">
         <v>480</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" t="s">
         <v>481</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" t="s">
         <v>482</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" t="s">
         <v>483</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
         <v>44183</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>485</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" t="s">
         <v>485</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" t="s">
         <v>485</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" t="s">
         <v>485</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" t="s">
         <v>485</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
         <v>44182</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>486</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" t="s">
         <v>487</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" t="s">
         <v>488</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" t="s">
         <v>489</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" t="s">
         <v>490</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
         <v>44181</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
         <v>492</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" t="s">
         <v>493</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" t="s">
         <v>494</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" t="s">
         <v>495</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" t="s">
         <v>496</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
         <v>44180</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>496</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" t="s">
         <v>498</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" t="s">
         <v>499</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" t="s">
         <v>498</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" t="s">
         <v>500</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
         <v>44179</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
         <v>502</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" t="s">
         <v>503</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" t="s">
         <v>504</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" t="s">
         <v>505</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" t="s">
         <v>506</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
         <v>44176</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
         <v>508</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" t="s">
         <v>509</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" t="s">
         <v>510</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" t="s">
         <v>511</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" t="s">
         <v>512</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
         <v>44175</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
         <v>514</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" t="s">
         <v>476</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" t="s">
         <v>515</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" t="s">
         <v>516</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" t="s">
         <v>517</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
         <v>44174</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" t="s">
         <v>519</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" t="s">
         <v>488</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" t="s">
         <v>520</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" t="s">
         <v>521</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" t="s">
         <v>522</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
         <v>44173</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>524</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" t="s">
         <v>442</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" t="s">
         <v>525</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" t="s">
         <v>495</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" t="s">
         <v>496</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G97" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
         <v>44172</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>527</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" t="s">
         <v>463</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" t="s">
         <v>524</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" t="s">
         <v>528</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" t="s">
         <v>529</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
         <v>44169</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" t="s">
         <v>531</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" t="s">
         <v>532</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" t="s">
         <v>464</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" t="s">
         <v>532</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" t="s">
         <v>533</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G99" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
         <v>44168</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" t="s">
         <v>535</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" t="s">
         <v>536</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" t="s">
         <v>537</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" t="s">
         <v>538</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" t="s">
         <v>539</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
         <v>44167</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" t="s">
         <v>428</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" t="s">
         <v>541</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" t="s">
         <v>542</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" t="s">
         <v>543</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" t="s">
         <v>544</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" t="s">
         <v>545</v>
       </c>
     </row>

--- a/Deposits_Returns.xlsx
+++ b/Deposits_Returns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/fce19_ic_ac_uk/Documents/Programming/GithubRepos/PortfolioAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{D4D3E242-7DB5-4B93-999F-575FBDDC8FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25304626-87DE-415D-8AAA-4469C92E8042}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{D4D3E242-7DB5-4B93-999F-575FBDDC8FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38228D51-4A28-4361-AE0C-FC28DB09299C}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="732" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etoro" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author>feyzican eser</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{4EB51A42-D7BD-4791-92CF-8C223470F1E7}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{4EB51A42-D7BD-4791-92CF-8C223470F1E7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
     withdrawn 04/2021</t>
       </text>
     </comment>
-    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{9C4D6534-4B52-4CB7-BACF-81EF9E4AC4EF}">
+    <comment ref="D5" authorId="1" shapeId="0" xr:uid="{9C4D6534-4B52-4CB7-BACF-81EF9E4AC4EF}">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="558">
   <si>
     <t>Open</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Etoro</t>
-  </si>
-  <si>
     <t>Robinhood</t>
   </si>
   <si>
@@ -1803,6 +1800,15 @@
   </si>
   <si>
     <t>Current Nutmeg</t>
+  </si>
+  <si>
+    <t>Etoro other's</t>
+  </si>
+  <si>
+    <t>Etoro total</t>
+  </si>
+  <si>
+    <t>Etoro mine</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1825,7 @@
     <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="171" formatCode="_([$$-409]* #,##0.000_);_([$$-409]* \(#,##0.000\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1853,6 +1859,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1913,7 +1925,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1939,6 +1951,8 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2140,17 +2154,20 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>1.3188</v>
+    <v>1.2679</v>
     <v>1.0382</v>
-    <v>-5.0000000000000001E-3</v>
-    <v>-4.0379999999999999E-3</v>
+    <v>9.5999999999999992E-3</v>
+    <v>7.7190000000000002E-3</v>
     <v>USD</v>
     <v>GBP</v>
+    <v>1.2539</v>
     <v>Currency Pair</v>
-    <v>45016.874988425923</v>
+    <v>45078.749826388892</v>
+    <v>1.2402</v>
     <v>UK Pound Sterling/US Dollar FX Spot Rate</v>
-    <v>1.2383</v>
-    <v>1.2333000000000001</v>
+    <v>1.2438</v>
+    <v>1.2437</v>
+    <v>1.2533000000000001</v>
     <v>GBPUSD</v>
     <v>GBP/USD</v>
   </rv>
@@ -2180,9 +2197,12 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
+    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
+    <k n="Low"/>
     <k n="Name" t="s"/>
+    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2197,7 +2217,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="24">
+    <a count="27">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2215,6 +2235,9 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2240,12 +2263,15 @@
     </spb>
     <spb s="3">
       <v>1</v>
+      <v>1</v>
       <v>2</v>
-      <v>2</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
       <v>3</v>
-      <v>2</v>
-      <v>2</v>
-      <v>2</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
       <v>4</v>
       <v>5</v>
     </spb>
@@ -2272,7 +2298,10 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
     <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -2305,20 +2334,20 @@
     </x:dxf>
   </dxfs>
   <richProperties>
+    <rPr n="NumberFormat" t="s"/>
     <rPr n="IsTitleField" t="b"/>
-    <rPr n="NumberFormat" t="s"/>
   </richProperties>
   <richStyles>
+    <rSty dxfid="3">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
     <rSty>
-      <rpv i="0">1</rpv>
-    </rSty>
-    <rSty dxfid="3">
-      <rpv i="1">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+      <rpv i="1">1</rpv>
     </rSty>
     <rSty dxfid="2"/>
     <rSty dxfid="1"/>
     <rSty dxfid="0">
-      <rpv i="1">0.00</rpv>
+      <rpv i="0">0.00</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -2603,7 +2632,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C3" dT="2022-08-13T13:15:39.07" personId="{799F9E36-52C1-4B6B-959B-541A226059B1}" id="{4EB51A42-D7BD-4791-92CF-8C223470F1E7}">
+  <threadedComment ref="C5" dT="2022-08-13T13:15:39.07" personId="{799F9E36-52C1-4B6B-959B-541A226059B1}" id="{4EB51A42-D7BD-4791-92CF-8C223470F1E7}">
     <text>withdrawn 04/2021</text>
   </threadedComment>
 </ThreadedComments>
@@ -2611,16 +2640,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F170CA-5FAA-4670-991A-BE540802BFBA}">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3734,6 +3763,22 @@
       </c>
       <c r="B139" s="1">
         <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="7">
+        <v>45043</v>
+      </c>
+      <c r="B140" s="1">
+        <v>-509</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="7">
+        <v>45058</v>
+      </c>
+      <c r="B141" s="1">
+        <v>-4000</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673B7E8B-C9B2-4562-84CD-10E9775FF423}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3876,177 +3921,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A43730-6C46-42D8-BCA9-E0BA56E01E60}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="6"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="C1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>552</v>
-      </c>
       <c r="E1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <f>SUM(Etoro!B2:B159)</f>
-        <v>11807.17</v>
+      <c r="A2" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="26">
+        <v>6500</v>
       </c>
       <c r="C2" s="1">
-        <v>11995</v>
-      </c>
-      <c r="D2" s="6">
-        <f>(C2-B2)/B2</f>
-        <v>1.590813039873229E-2</v>
-      </c>
-      <c r="E2" s="6">
-        <f>(C2-B8-B2)/B2</f>
-        <v>-8.9536273298343294E-2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="16"/>
+        <v>6600</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>500</v>
+      <c r="A3" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" s="26">
+        <f>B4+B2</f>
+        <v>13798.17</v>
       </c>
       <c r="C3" s="1">
-        <v>435</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D6" si="0">(C3-B3)/B3</f>
-        <v>-0.13</v>
-      </c>
-      <c r="E3" s="6">
-        <f>D3</f>
-        <v>-0.13</v>
+        <v>14720</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>548</v>
-      </c>
-      <c r="B4" s="19">
-        <f>SUM(Nutmeg!B2:B9)*Returns!B9</f>
-        <v>1603.2900000000002</v>
-      </c>
-      <c r="C4" s="19">
-        <f>B10*Returns!B9</f>
-        <v>1594.6569000000002</v>
+        <v>557</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(Etoro!B2:B159)</f>
+        <v>7298.17</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C3-C2</f>
+        <v>8120</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>-5.3846153846153922E-3</v>
+        <f>(C4-B4)/B4</f>
+        <v>0.11260768110361911</v>
       </c>
       <c r="E4" s="6">
-        <f>D4</f>
-        <v>-5.3846153846153922E-3</v>
-      </c>
+        <f>(C4-B10-B4)/B4</f>
+        <v>-5.7983028622243665E-2</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="B5" s="21">
-        <f>B2+B4</f>
-        <v>13410.460000000001</v>
-      </c>
-      <c r="C5" s="21">
-        <f>C2+C4</f>
-        <v>13589.6569</v>
-      </c>
-      <c r="D5" s="22">
-        <f t="shared" si="0"/>
-        <v>1.3362472279101463E-2</v>
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>500</v>
+      </c>
+      <c r="C5" s="1">
+        <v>435</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" ref="D5:D8" si="0">(C5-B5)/B5</f>
+        <v>-0.13</v>
       </c>
       <c r="E5" s="6">
-        <f>(C5-B8-B5)/B5</f>
-        <v>-7.9475506433038162E-2</v>
+        <f>D5</f>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>547</v>
       </c>
-      <c r="B6" s="1">
-        <f>SUM(B2:B4)</f>
-        <v>13910.460000000001</v>
+      <c r="B6" s="19">
+        <f>SUM(Nutmeg!B2:B9)*Returns!B11</f>
+        <v>1629.2900000000002</v>
       </c>
       <c r="C6" s="1">
-        <f>SUM(C2:C4)</f>
-        <v>14024.6569</v>
+        <f>B12*Returns!B11</f>
+        <v>1620.5169000000001</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>8.2094265753971472E-3</v>
+        <v>-5.3846153846154538E-3</v>
       </c>
       <c r="E6" s="6">
-        <f>(C6-B8-B6)/B6</f>
-        <v>-8.12915676404663E-2</v>
-      </c>
-      <c r="F6" s="6"/>
+        <f>D6</f>
+        <v>-5.3846153846154538E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7" s="21">
+        <f>B4+B6</f>
+        <v>8927.4600000000009</v>
+      </c>
+      <c r="C7" s="21">
+        <f>C4+C6</f>
+        <v>9740.5169000000005</v>
+      </c>
+      <c r="D7" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1073709655377852E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <f>(C7-B10-B7)/B7</f>
+        <v>-4.8383649996751633E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" t="s">
         <v>546</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="1">
+        <f>SUM(B4:B6)</f>
+        <v>9427.4600000000009</v>
+      </c>
+      <c r="C8" s="1">
+        <f>SUM(C4:C6)</f>
+        <v>10175.516900000001</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>7.9348721712953388E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <f>(C8-B10-B8)/B8</f>
+        <v>-5.2712300025669734E-2</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10" s="15">
         <v>1245</v>
       </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="e" vm="1">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B9" s="23" cm="1">
-        <f t="array" ref="B9">_FV(A9,"Price")</f>
-        <v>1.2333000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B10">
+      <c r="B11" s="23" cm="1">
+        <f t="array" ref="B11">_FV(A11,"Price")</f>
+        <v>1.2533000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12">
         <v>1293</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -4063,12 +4125,12 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
@@ -4092,6 +4154,12 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4125,19 +4193,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
       <c r="I1"/>
     </row>
@@ -4146,22 +4214,22 @@
         <v>44309</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
       <c r="I2"/>
     </row>
@@ -4170,22 +4238,22 @@
         <v>44308</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -4194,22 +4262,22 @@
         <v>44307</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -4218,22 +4286,22 @@
         <v>44306</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
       </c>
       <c r="I5"/>
     </row>
@@ -4242,22 +4310,22 @@
         <v>44305</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -4266,22 +4334,22 @@
         <v>44302</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -4289,22 +4357,22 @@
         <v>44301</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -4312,22 +4380,22 @@
         <v>44300</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -4335,22 +4403,22 @@
         <v>44299</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
         <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -4358,22 +4426,22 @@
         <v>44298</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -4381,22 +4449,22 @@
         <v>44295</v>
       </c>
       <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
         <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -4404,22 +4472,22 @@
         <v>44294</v>
       </c>
       <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -4427,22 +4495,22 @@
         <v>44293</v>
       </c>
       <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -4450,22 +4518,22 @@
         <v>44292</v>
       </c>
       <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
         <v>77</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -4473,22 +4541,22 @@
         <v>44291</v>
       </c>
       <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
         <v>79</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
         <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -4496,22 +4564,22 @@
         <v>44287</v>
       </c>
       <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
         <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -4519,22 +4587,22 @@
         <v>44286</v>
       </c>
       <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>90</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
         <v>92</v>
-      </c>
-      <c r="F18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4542,22 +4610,22 @@
         <v>44285</v>
       </c>
       <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
         <v>94</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>95</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>96</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
         <v>97</v>
-      </c>
-      <c r="F19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4565,22 +4633,22 @@
         <v>44284</v>
       </c>
       <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
         <v>99</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>100</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>101</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
         <v>102</v>
-      </c>
-      <c r="F20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -4588,22 +4656,22 @@
         <v>44281</v>
       </c>
       <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
         <v>104</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>105</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>106</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
         <v>107</v>
-      </c>
-      <c r="F21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -4611,22 +4679,22 @@
         <v>44280</v>
       </c>
       <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>110</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>111</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
         <v>112</v>
-      </c>
-      <c r="F22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -4634,22 +4702,22 @@
         <v>44279</v>
       </c>
       <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>116</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
         <v>117</v>
-      </c>
-      <c r="F23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -4657,22 +4725,22 @@
         <v>44278</v>
       </c>
       <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>120</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>121</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
         <v>122</v>
-      </c>
-      <c r="F24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -4680,22 +4748,22 @@
         <v>44277</v>
       </c>
       <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
         <v>124</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>126</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
         <v>127</v>
-      </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -4703,22 +4771,22 @@
         <v>44274</v>
       </c>
       <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
         <v>129</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>130</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>131</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
         <v>132</v>
-      </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -4726,22 +4794,22 @@
         <v>44274</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -4749,22 +4817,22 @@
         <v>44273</v>
       </c>
       <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
         <v>135</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>136</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>137</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>138</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>139</v>
-      </c>
-      <c r="G28" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -4772,22 +4840,22 @@
         <v>44272</v>
       </c>
       <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
         <v>141</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>142</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>143</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>144</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>145</v>
-      </c>
-      <c r="G29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4795,22 +4863,22 @@
         <v>44271</v>
       </c>
       <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
         <v>147</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>148</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>149</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>150</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>151</v>
-      </c>
-      <c r="G30" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4818,22 +4886,22 @@
         <v>44270</v>
       </c>
       <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
         <v>153</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>154</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
         <v>155</v>
       </c>
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>156</v>
-      </c>
-      <c r="G31" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4841,22 +4909,22 @@
         <v>44267</v>
       </c>
       <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
         <v>158</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>159</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>160</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>161</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>162</v>
-      </c>
-      <c r="G32" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -4864,22 +4932,22 @@
         <v>44266</v>
       </c>
       <c r="B33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" t="s">
         <v>164</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>165</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>166</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>167</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>168</v>
-      </c>
-      <c r="G33" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4887,22 +4955,22 @@
         <v>44265</v>
       </c>
       <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
         <v>170</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>171</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>172</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>173</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>174</v>
-      </c>
-      <c r="G34" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -4910,22 +4978,22 @@
         <v>44264</v>
       </c>
       <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
         <v>176</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>177</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>178</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>179</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>180</v>
-      </c>
-      <c r="G35" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -4933,22 +5001,22 @@
         <v>44263</v>
       </c>
       <c r="B36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" t="s">
         <v>182</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>183</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>184</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>185</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>186</v>
-      </c>
-      <c r="G36" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -4956,22 +5024,22 @@
         <v>44260</v>
       </c>
       <c r="B37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
         <v>188</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>189</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>190</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>191</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>192</v>
-      </c>
-      <c r="G37" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -4979,22 +5047,22 @@
         <v>44259</v>
       </c>
       <c r="B38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" t="s">
         <v>194</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>195</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>196</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>197</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>198</v>
-      </c>
-      <c r="G38" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -5002,22 +5070,22 @@
         <v>44258</v>
       </c>
       <c r="B39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" t="s">
         <v>200</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>201</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" t="s">
         <v>202</v>
       </c>
-      <c r="E39" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>203</v>
-      </c>
-      <c r="G39" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -5025,22 +5093,22 @@
         <v>44257</v>
       </c>
       <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
         <v>205</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>206</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>207</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>208</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>209</v>
-      </c>
-      <c r="G40" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -5048,22 +5116,22 @@
         <v>44256</v>
       </c>
       <c r="B41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
         <v>211</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>212</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" t="s">
         <v>213</v>
-      </c>
-      <c r="E41" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -5071,22 +5139,22 @@
         <v>44253</v>
       </c>
       <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" t="s">
         <v>215</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>216</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>217</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>218</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>219</v>
-      </c>
-      <c r="G42" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -5094,22 +5162,22 @@
         <v>44252</v>
       </c>
       <c r="B43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" t="s">
         <v>221</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>222</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>223</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>224</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>225</v>
-      </c>
-      <c r="G43" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -5117,22 +5185,22 @@
         <v>44251</v>
       </c>
       <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" t="s">
         <v>227</v>
       </c>
-      <c r="C44" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>228</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>229</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>230</v>
-      </c>
-      <c r="G44" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -5140,22 +5208,22 @@
         <v>44250</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45" t="s">
         <v>232</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>233</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>234</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>235</v>
-      </c>
-      <c r="G45" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -5163,22 +5231,22 @@
         <v>44249</v>
       </c>
       <c r="B46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" t="s">
         <v>237</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>238</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>239</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>240</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>241</v>
-      </c>
-      <c r="G46" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -5186,22 +5254,22 @@
         <v>44246</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" t="s">
         <v>243</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
         <v>244</v>
       </c>
-      <c r="E47" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>245</v>
-      </c>
-      <c r="G47" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -5209,22 +5277,22 @@
         <v>44245</v>
       </c>
       <c r="B48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" t="s">
         <v>247</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>248</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>249</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>250</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>251</v>
-      </c>
-      <c r="G48" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -5232,22 +5300,22 @@
         <v>44244</v>
       </c>
       <c r="B49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" t="s">
         <v>253</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>254</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>255</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>256</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>257</v>
-      </c>
-      <c r="G49" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -5255,22 +5323,22 @@
         <v>44243</v>
       </c>
       <c r="B50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" t="s">
         <v>259</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>260</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>261</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>262</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>263</v>
-      </c>
-      <c r="G50" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -5278,22 +5346,22 @@
         <v>44239</v>
       </c>
       <c r="B51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" t="s">
         <v>265</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>266</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>267</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>268</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>269</v>
-      </c>
-      <c r="G51" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -5301,22 +5369,22 @@
         <v>44238</v>
       </c>
       <c r="B52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" t="s">
         <v>271</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>272</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>273</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>274</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>275</v>
-      </c>
-      <c r="G52" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -5324,22 +5392,22 @@
         <v>44237</v>
       </c>
       <c r="B53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C53" t="s">
         <v>277</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" t="s">
         <v>278</v>
       </c>
-      <c r="D53" t="s">
-        <v>234</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>279</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>280</v>
-      </c>
-      <c r="G53" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -5347,22 +5415,22 @@
         <v>44236</v>
       </c>
       <c r="B54" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" t="s">
         <v>282</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>283</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>284</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>285</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>286</v>
-      </c>
-      <c r="G54" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -5370,22 +5438,22 @@
         <v>44235</v>
       </c>
       <c r="B55" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" t="s">
         <v>288</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>289</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>290</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>291</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>292</v>
-      </c>
-      <c r="G55" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -5393,22 +5461,22 @@
         <v>44232</v>
       </c>
       <c r="B56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" t="s">
         <v>294</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>295</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>296</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>297</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>298</v>
-      </c>
-      <c r="G56" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -5416,22 +5484,22 @@
         <v>44231</v>
       </c>
       <c r="B57" t="s">
+        <v>299</v>
+      </c>
+      <c r="C57" t="s">
         <v>300</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>301</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>302</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>303</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
-      </c>
-      <c r="G57" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -5439,22 +5507,22 @@
         <v>44230</v>
       </c>
       <c r="B58" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" t="s">
         <v>306</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>307</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>308</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>309</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>310</v>
-      </c>
-      <c r="G58" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -5462,22 +5530,22 @@
         <v>44229</v>
       </c>
       <c r="B59" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" t="s">
         <v>312</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>313</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>314</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>315</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>316</v>
-      </c>
-      <c r="G59" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -5485,22 +5553,22 @@
         <v>44228</v>
       </c>
       <c r="B60" t="s">
+        <v>317</v>
+      </c>
+      <c r="C60" t="s">
         <v>318</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>319</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>320</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>321</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>322</v>
-      </c>
-      <c r="G60" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -5508,22 +5576,22 @@
         <v>44225</v>
       </c>
       <c r="B61" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" t="s">
         <v>324</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>325</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>326</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>327</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>328</v>
-      </c>
-      <c r="G61" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -5531,22 +5599,22 @@
         <v>44224</v>
       </c>
       <c r="B62" t="s">
+        <v>329</v>
+      </c>
+      <c r="C62" t="s">
         <v>330</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>331</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>332</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>333</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>334</v>
-      </c>
-      <c r="G62" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -5554,22 +5622,22 @@
         <v>44223</v>
       </c>
       <c r="B63" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" t="s">
         <v>336</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>337</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>338</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>339</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>340</v>
-      </c>
-      <c r="G63" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -5577,22 +5645,22 @@
         <v>44222</v>
       </c>
       <c r="B64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" t="s">
         <v>342</v>
       </c>
-      <c r="C64" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>343</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>344</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>345</v>
-      </c>
-      <c r="G64" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -5600,22 +5668,22 @@
         <v>44221</v>
       </c>
       <c r="B65" t="s">
+        <v>346</v>
+      </c>
+      <c r="C65" t="s">
         <v>347</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>348</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>349</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>350</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>351</v>
-      </c>
-      <c r="G65" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -5623,22 +5691,22 @@
         <v>44218</v>
       </c>
       <c r="B66" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" t="s">
         <v>353</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>354</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>355</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>356</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>357</v>
-      </c>
-      <c r="G66" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -5646,22 +5714,22 @@
         <v>44217</v>
       </c>
       <c r="B67" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" t="s">
         <v>359</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>360</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>361</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>362</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>363</v>
-      </c>
-      <c r="G67" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -5669,22 +5737,22 @@
         <v>44216</v>
       </c>
       <c r="B68" t="s">
+        <v>364</v>
+      </c>
+      <c r="C68" t="s">
         <v>365</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>366</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>367</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>368</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>369</v>
-      </c>
-      <c r="G68" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -5692,22 +5760,22 @@
         <v>44215</v>
       </c>
       <c r="B69" t="s">
+        <v>370</v>
+      </c>
+      <c r="C69" t="s">
         <v>371</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>372</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>373</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>374</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>375</v>
-      </c>
-      <c r="G69" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -5715,22 +5783,22 @@
         <v>44211</v>
       </c>
       <c r="B70" t="s">
+        <v>376</v>
+      </c>
+      <c r="C70" t="s">
         <v>377</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>378</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>379</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>380</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>381</v>
-      </c>
-      <c r="G70" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -5738,22 +5806,22 @@
         <v>44210</v>
       </c>
       <c r="B71" t="s">
+        <v>382</v>
+      </c>
+      <c r="C71" t="s">
         <v>383</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>384</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>348</v>
+      </c>
+      <c r="F71" t="s">
         <v>385</v>
       </c>
-      <c r="E71" t="s">
-        <v>349</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>386</v>
-      </c>
-      <c r="G71" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -5761,22 +5829,22 @@
         <v>44209</v>
       </c>
       <c r="B72" t="s">
+        <v>387</v>
+      </c>
+      <c r="C72" t="s">
         <v>388</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>389</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>390</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>391</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>392</v>
-      </c>
-      <c r="G72" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -5784,22 +5852,22 @@
         <v>44208</v>
       </c>
       <c r="B73" t="s">
+        <v>393</v>
+      </c>
+      <c r="C73" t="s">
         <v>394</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>329</v>
+      </c>
+      <c r="E73" t="s">
         <v>395</v>
       </c>
-      <c r="D73" t="s">
-        <v>330</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>396</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>397</v>
-      </c>
-      <c r="G73" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -5807,22 +5875,22 @@
         <v>44207</v>
       </c>
       <c r="B74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C74" t="s">
+        <v>398</v>
+      </c>
+      <c r="D74" t="s">
         <v>399</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>387</v>
+      </c>
+      <c r="F74" t="s">
         <v>400</v>
       </c>
-      <c r="E74" t="s">
-        <v>388</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>401</v>
-      </c>
-      <c r="G74" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -5830,22 +5898,22 @@
         <v>44204</v>
       </c>
       <c r="B75" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C75" t="s">
+        <v>402</v>
+      </c>
+      <c r="D75" t="s">
         <v>403</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>404</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>405</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>406</v>
-      </c>
-      <c r="G75" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -5853,22 +5921,22 @@
         <v>44203</v>
       </c>
       <c r="B76" t="s">
+        <v>407</v>
+      </c>
+      <c r="C76" t="s">
         <v>408</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>409</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>410</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>411</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>412</v>
-      </c>
-      <c r="G76" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -5876,22 +5944,22 @@
         <v>44202</v>
       </c>
       <c r="B77" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" t="s">
         <v>414</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>415</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>416</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>417</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>418</v>
-      </c>
-      <c r="G77" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -5899,22 +5967,22 @@
         <v>44201</v>
       </c>
       <c r="B78" t="s">
+        <v>419</v>
+      </c>
+      <c r="C78" t="s">
         <v>420</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>421</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>422</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>423</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>424</v>
-      </c>
-      <c r="G78" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -5922,22 +5990,22 @@
         <v>44200</v>
       </c>
       <c r="B79" t="s">
+        <v>425</v>
+      </c>
+      <c r="C79" t="s">
         <v>426</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>427</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>428</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>429</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>430</v>
-      </c>
-      <c r="G79" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -5945,22 +6013,22 @@
         <v>44196</v>
       </c>
       <c r="B80" t="s">
+        <v>431</v>
+      </c>
+      <c r="C80" t="s">
         <v>432</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>433</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>434</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>435</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>436</v>
-      </c>
-      <c r="G80" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -5968,22 +6036,22 @@
         <v>44195</v>
       </c>
       <c r="B81" t="s">
+        <v>437</v>
+      </c>
+      <c r="C81" t="s">
         <v>438</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>439</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>440</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>441</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>442</v>
-      </c>
-      <c r="G81" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -5991,22 +6059,22 @@
         <v>44194</v>
       </c>
       <c r="B82" t="s">
+        <v>443</v>
+      </c>
+      <c r="C82" t="s">
         <v>444</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>445</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>446</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>447</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>448</v>
-      </c>
-      <c r="G82" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -6014,22 +6082,22 @@
         <v>44193</v>
       </c>
       <c r="B83" t="s">
+        <v>449</v>
+      </c>
+      <c r="C83" t="s">
         <v>450</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>451</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>452</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>453</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>454</v>
-      </c>
-      <c r="G83" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -6037,22 +6105,22 @@
         <v>44189</v>
       </c>
       <c r="B84" t="s">
+        <v>455</v>
+      </c>
+      <c r="C84" t="s">
         <v>456</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>457</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>458</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>459</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>460</v>
-      </c>
-      <c r="G84" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -6060,22 +6128,22 @@
         <v>44188</v>
       </c>
       <c r="B85" t="s">
+        <v>461</v>
+      </c>
+      <c r="C85" t="s">
         <v>462</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>463</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>464</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>465</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>466</v>
-      </c>
-      <c r="G85" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -6083,22 +6151,22 @@
         <v>44187</v>
       </c>
       <c r="B86" t="s">
+        <v>467</v>
+      </c>
+      <c r="C86" t="s">
         <v>468</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>469</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>470</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>471</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>472</v>
-      </c>
-      <c r="G86" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -6106,22 +6174,22 @@
         <v>44186</v>
       </c>
       <c r="B87" t="s">
+        <v>473</v>
+      </c>
+      <c r="C87" t="s">
+        <v>348</v>
+      </c>
+      <c r="D87" t="s">
         <v>474</v>
       </c>
-      <c r="C87" t="s">
-        <v>349</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>475</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>476</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>477</v>
-      </c>
-      <c r="G87" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -6129,22 +6197,22 @@
         <v>44183</v>
       </c>
       <c r="B88" t="s">
+        <v>478</v>
+      </c>
+      <c r="C88" t="s">
         <v>479</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>480</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>481</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>482</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>483</v>
-      </c>
-      <c r="G88" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -6152,22 +6220,22 @@
         <v>44183</v>
       </c>
       <c r="B89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -6175,22 +6243,22 @@
         <v>44182</v>
       </c>
       <c r="B90" t="s">
+        <v>485</v>
+      </c>
+      <c r="C90" t="s">
         <v>486</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>487</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>488</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>489</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>490</v>
-      </c>
-      <c r="G90" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -6198,22 +6266,22 @@
         <v>44181</v>
       </c>
       <c r="B91" t="s">
+        <v>491</v>
+      </c>
+      <c r="C91" t="s">
         <v>492</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>493</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>494</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>495</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>496</v>
-      </c>
-      <c r="G91" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -6221,22 +6289,22 @@
         <v>44180</v>
       </c>
       <c r="B92" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C92" t="s">
+        <v>497</v>
+      </c>
+      <c r="D92" t="s">
         <v>498</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
+        <v>497</v>
+      </c>
+      <c r="F92" t="s">
         <v>499</v>
       </c>
-      <c r="E92" t="s">
-        <v>498</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>500</v>
-      </c>
-      <c r="G92" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -6244,22 +6312,22 @@
         <v>44179</v>
       </c>
       <c r="B93" t="s">
+        <v>501</v>
+      </c>
+      <c r="C93" t="s">
         <v>502</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>503</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>504</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>505</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>506</v>
-      </c>
-      <c r="G93" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -6267,22 +6335,22 @@
         <v>44176</v>
       </c>
       <c r="B94" t="s">
+        <v>507</v>
+      </c>
+      <c r="C94" t="s">
         <v>508</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>509</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>510</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>511</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>512</v>
-      </c>
-      <c r="G94" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -6290,22 +6358,22 @@
         <v>44175</v>
       </c>
       <c r="B95" t="s">
+        <v>513</v>
+      </c>
+      <c r="C95" t="s">
+        <v>475</v>
+      </c>
+      <c r="D95" t="s">
         <v>514</v>
       </c>
-      <c r="C95" t="s">
-        <v>476</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>515</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>516</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>517</v>
-      </c>
-      <c r="G95" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -6313,22 +6381,22 @@
         <v>44174</v>
       </c>
       <c r="B96" t="s">
+        <v>518</v>
+      </c>
+      <c r="C96" t="s">
+        <v>487</v>
+      </c>
+      <c r="D96" t="s">
         <v>519</v>
       </c>
-      <c r="C96" t="s">
-        <v>488</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>520</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>521</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>522</v>
-      </c>
-      <c r="G96" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -6336,22 +6404,22 @@
         <v>44173</v>
       </c>
       <c r="B97" t="s">
+        <v>523</v>
+      </c>
+      <c r="C97" t="s">
+        <v>441</v>
+      </c>
+      <c r="D97" t="s">
         <v>524</v>
       </c>
-      <c r="C97" t="s">
-        <v>442</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
+        <v>494</v>
+      </c>
+      <c r="F97" t="s">
+        <v>495</v>
+      </c>
+      <c r="G97" t="s">
         <v>525</v>
-      </c>
-      <c r="E97" t="s">
-        <v>495</v>
-      </c>
-      <c r="F97" t="s">
-        <v>496</v>
-      </c>
-      <c r="G97" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -6359,22 +6427,22 @@
         <v>44172</v>
       </c>
       <c r="B98" t="s">
+        <v>526</v>
+      </c>
+      <c r="C98" t="s">
+        <v>462</v>
+      </c>
+      <c r="D98" t="s">
+        <v>523</v>
+      </c>
+      <c r="E98" t="s">
         <v>527</v>
       </c>
-      <c r="C98" t="s">
-        <v>463</v>
-      </c>
-      <c r="D98" t="s">
-        <v>524</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>528</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>529</v>
-      </c>
-      <c r="G98" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -6382,22 +6450,22 @@
         <v>44169</v>
       </c>
       <c r="B99" t="s">
+        <v>530</v>
+      </c>
+      <c r="C99" t="s">
         <v>531</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>463</v>
+      </c>
+      <c r="E99" t="s">
+        <v>531</v>
+      </c>
+      <c r="F99" t="s">
         <v>532</v>
       </c>
-      <c r="D99" t="s">
-        <v>464</v>
-      </c>
-      <c r="E99" t="s">
-        <v>532</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>533</v>
-      </c>
-      <c r="G99" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -6405,22 +6473,22 @@
         <v>44168</v>
       </c>
       <c r="B100" t="s">
+        <v>534</v>
+      </c>
+      <c r="C100" t="s">
         <v>535</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>536</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>537</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>538</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>539</v>
-      </c>
-      <c r="G100" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -6428,22 +6496,22 @@
         <v>44167</v>
       </c>
       <c r="B101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C101" t="s">
+        <v>540</v>
+      </c>
+      <c r="D101" t="s">
         <v>541</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>542</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>543</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>544</v>
-      </c>
-      <c r="G101" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>
